--- a/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
+++ b/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu3\GitHub\univ\paper\ABC2020CookingChallenge\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048BC73-56CF-4AA9-A57E-AED5E657843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058BBC9-BFDC-4C96-9610-15FFFBF7169E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4245" windowWidth="16440" windowHeight="28440" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
+    <workbookView xWindow="22932" yWindow="4308" windowWidth="22320" windowHeight="13176" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Subject</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,66 @@
   </si>
   <si>
     <t>Unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activity type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Train data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max. accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Min. loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 1, 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Micro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Macro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 2, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 1, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject 1, 2, 3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -107,6 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -393,13 +456,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,24 +615,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,37 +672,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,46 +1042,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C9332A-A877-4B80-892A-108A3023B24C}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="A1:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="A21:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="15"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -855,31 +1100,31 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="15">
         <v>80</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>2.09</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -888,94 +1133,94 @@
       <c r="I3" s="3">
         <v>131.9</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="6">
         <v>8191</v>
       </c>
       <c r="I4" s="6">
         <v>2945</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="12">
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="6">
         <v>1470</v>
       </c>
       <c r="I5" s="6">
         <v>1309</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="12">
         <v>8</v>
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="2">
         <v>8257</v>
       </c>
       <c r="I6" s="2">
         <v>4484</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="10">
         <v>0</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="15">
         <v>105</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="H7" s="3">
@@ -984,94 +1229,94 @@
       <c r="I7" s="3">
         <v>428.3</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="11">
         <v>10</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="6">
         <v>5986</v>
       </c>
       <c r="I8" s="6">
         <v>2171</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="12">
         <v>0</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="6">
         <v>1500</v>
       </c>
       <c r="I9" s="6">
         <v>1272</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="12">
         <v>8</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="2">
         <v>2992</v>
       </c>
       <c r="I10" s="2">
         <v>2465</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="10">
         <v>0</v>
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="18">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="15">
         <v>103</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="H11" s="3">
@@ -1080,94 +1325,94 @@
       <c r="I11" s="3">
         <v>429.3</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="11">
         <v>32</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="6">
         <v>5529</v>
       </c>
       <c r="I12" s="6">
         <v>774.6</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="12">
         <v>0</v>
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="6">
         <v>1594</v>
       </c>
       <c r="I13" s="6">
         <v>1182</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="12">
         <v>164</v>
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="2">
         <v>5938</v>
       </c>
       <c r="I14" s="2">
         <v>3559</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="10">
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="19">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="15">
         <v>180</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="6">
@@ -1176,75 +1421,75 @@
       <c r="I15" s="6">
         <v>406.7</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="12">
         <v>46</v>
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="6">
         <v>7143</v>
       </c>
       <c r="I16" s="6">
         <v>1126</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="12">
         <v>0</v>
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="6">
         <v>1479</v>
       </c>
       <c r="I17" s="6">
         <v>1233</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="12">
         <v>86</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13">
         <v>8761</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="13">
         <v>2080</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="14">
         <v>0</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
@@ -1258,78 +1503,214 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="31"/>
+      <c r="B23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0.497</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="31"/>
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33">
+        <f>AVERAGE(D22:D24)</f>
+        <v>0.52166666666666661</v>
+      </c>
+      <c r="E25" s="41">
+        <f>AVERAGE(E22:E24)</f>
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="32"/>
+      <c r="B26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E27" s="43">
+        <v>1.0569999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="31"/>
+      <c r="B28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E28" s="41">
+        <v>1.0940000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="31"/>
+      <c r="B29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E29" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="31"/>
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33">
+        <f>AVERAGE(D27:D29)</f>
+        <v>0.49099999999999994</v>
+      </c>
+      <c r="E30" s="41">
+        <f>AVERAGE(E27:E29)</f>
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="32"/>
+      <c r="B31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="37">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E38" s="5"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D42" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
+  <mergeCells count="30">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -1346,9 +1727,22 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="G11:G14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D30:E30" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
+++ b/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu3\GitHub\univ\paper\ABC2020CookingChallenge\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058BBC9-BFDC-4C96-9610-15FFFBF7169E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73B944-B1B0-4014-A8BC-1B037B36F93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4308" windowWidth="22320" windowHeight="13176" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="15260" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -639,91 +639,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,19 +1043,19 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="A21:E31"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="12.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1068,19 +1068,19 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1105,26 +1105,26 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="19">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="40">
         <v>80</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="40">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="40">
         <v>5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="40">
         <v>2.09</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="40">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -1138,16 +1138,16 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="33"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="6">
         <v>8191</v>
       </c>
@@ -1159,16 +1159,16 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="6">
         <v>1470</v>
       </c>
@@ -1180,16 +1180,16 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="2">
         <v>8257</v>
       </c>
@@ -1201,26 +1201,26 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="32">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="40">
         <v>105</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="40">
         <v>6</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="40">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
       <c r="H7" s="3">
@@ -1234,16 +1234,16 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="33"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="6">
         <v>5986</v>
       </c>
@@ -1255,16 +1255,16 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="33"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="6">
         <v>1500</v>
       </c>
@@ -1276,16 +1276,16 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="2">
         <v>2992</v>
       </c>
@@ -1297,26 +1297,26 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="19">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="32">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="40">
         <v>103</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="40">
         <v>1</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="40">
         <v>6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="40">
         <v>1</v>
       </c>
       <c r="H11" s="3">
@@ -1330,16 +1330,16 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="6">
         <v>5529</v>
       </c>
@@ -1351,16 +1351,16 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="6">
         <v>1594</v>
       </c>
@@ -1372,16 +1372,16 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="2">
         <v>5938</v>
       </c>
@@ -1393,26 +1393,26 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="19">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="32">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="40">
         <v>180</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="40">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="6">
@@ -1426,16 +1426,16 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="6">
         <v>7143</v>
       </c>
@@ -1447,16 +1447,16 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="6">
         <v>1479</v>
       </c>
@@ -1468,16 +1468,16 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:15" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="34"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="13">
         <v>8761</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
@@ -1503,215 +1503,222 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="18">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="25">
         <v>0.436</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="29"/>
+      <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="18">
         <v>0.497</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="25">
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="29"/>
+      <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="18">
         <v>0.53200000000000003</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="25">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="29"/>
+      <c r="B25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="33">
-        <f>AVERAGE(D22:D24)</f>
-        <v>0.52166666666666661</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="C25" s="31"/>
+      <c r="D25" s="18">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E25" s="25">
         <f>AVERAGE(E22:E24)</f>
         <v>0.435</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="30"/>
+      <c r="B26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="21">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="26">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="20">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="27">
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="31"/>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="29"/>
+      <c r="B28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="18">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="25">
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="31"/>
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="29"/>
+      <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="18">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="25">
         <v>1.05</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="29" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="33">
+      <c r="C30" s="31"/>
+      <c r="D30" s="18">
         <f>AVERAGE(D27:D29)</f>
         <v>0.49099999999999994</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="25">
         <f>AVERAGE(E27:E29)</f>
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32"/>
-      <c r="B31" s="37" t="s">
+    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="30"/>
+      <c r="B31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="21">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="26">
         <v>0.246</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="5"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A3:A6"/>
@@ -1720,23 +1727,15 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
+++ b/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu3\GitHub\univ\paper\ABC2020CookingChallenge\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73B944-B1B0-4014-A8BC-1B037B36F93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F9A8E-2A58-4702-80CC-B8B62BF9CC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="15260" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
+    <workbookView xWindow="-16320" yWindow="-4245" windowWidth="16440" windowHeight="28440" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Subject</t>
     <phoneticPr fontId="1"/>
@@ -156,10 +156,6 @@
   </si>
   <si>
     <t>Subject 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subject 1, 2, 3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -201,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -587,6 +583,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,6 +683,39 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,43 +725,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C9332A-A877-4B80-892A-108A3023B24C}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
@@ -1068,16 +1073,16 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="38"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1106,25 +1111,25 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="32">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="28">
         <v>80</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="28">
         <v>5</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="28">
         <v>2.09</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="28">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -1139,15 +1144,15 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="6">
         <v>8191</v>
       </c>
@@ -1160,15 +1165,15 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="6">
         <v>1470</v>
       </c>
@@ -1181,15 +1186,15 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="2">
         <v>8257</v>
       </c>
@@ -1202,25 +1207,25 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="28">
         <v>105</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="28">
         <v>6</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="28">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="28">
         <v>1</v>
       </c>
       <c r="H7" s="3">
@@ -1235,15 +1240,15 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="6">
         <v>5986</v>
       </c>
@@ -1256,15 +1261,15 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="6">
         <v>1500</v>
       </c>
@@ -1277,15 +1282,15 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="2">
         <v>2992</v>
       </c>
@@ -1298,25 +1303,25 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="28">
         <v>103</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="28">
         <v>6</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="28">
         <v>1</v>
       </c>
       <c r="H11" s="3">
@@ -1331,15 +1336,15 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="6">
         <v>5529</v>
       </c>
@@ -1352,15 +1357,15 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="6">
         <v>1594</v>
       </c>
@@ -1373,15 +1378,15 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="2">
         <v>5938</v>
       </c>
@@ -1394,25 +1399,25 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32">
+      <c r="A15" s="36">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="28">
         <v>180</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="28">
         <v>1</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="6">
@@ -1427,15 +1432,15 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="6">
         <v>7143</v>
       </c>
@@ -1448,15 +1453,15 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="6">
         <v>1479</v>
       </c>
@@ -1469,15 +1474,15 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="34"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="13">
         <v>8761</v>
       </c>
@@ -1524,7 +1529,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1541,7 +1546,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1561,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
@@ -1570,118 +1575,94 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
-      <c r="B25" s="31" t="s">
+    <row r="25" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="41"/>
+      <c r="B25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="18">
+      <c r="C25" s="43"/>
+      <c r="D25" s="21">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="26">
         <f>AVERAGE(E22:E24)</f>
         <v>0.435</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="30"/>
-      <c r="B26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E26" s="26">
-        <v>0.24399999999999999</v>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1.0569999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E27" s="27">
-        <v>1.0569999999999999</v>
+      <c r="A27" s="40"/>
+      <c r="B27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1.0940000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D28" s="18">
-        <v>0.41599999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E28" s="25">
-        <v>1.0940000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29"/>
-      <c r="B29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="E29" s="25">
         <v>1.05</v>
       </c>
     </row>
+    <row r="29" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="41"/>
+      <c r="B29" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="21">
+        <f>AVERAGE(D26:D28)</f>
+        <v>0.49099999999999994</v>
+      </c>
+      <c r="E29" s="26">
+        <f>AVERAGE(E26:E28)</f>
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="29"/>
-      <c r="B30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="18">
-        <f>AVERAGE(D27:D29)</f>
-        <v>0.49099999999999994</v>
-      </c>
-      <c r="E30" s="25">
-        <f>AVERAGE(E27:E29)</f>
-        <v>1.0669999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0.246</v>
-      </c>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="5"/>
@@ -1695,30 +1676,17 @@
     <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="5"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="5"/>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A3:A6"/>
@@ -1730,18 +1698,25 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D30:E30" formulaRange="1"/>
+    <ignoredError sqref="D29:E29" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
+++ b/paper/ABC2020CookingChallenge/figures/ABC2020_Fujii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu3\GitHub\univ\paper\ABC2020CookingChallenge\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F9A8E-2A58-4702-80CC-B8B62BF9CC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB128A-2EDC-4931-952E-2483928BA549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4245" windowWidth="16440" windowHeight="28440" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
+    <workbookView xWindow="-19935" yWindow="-1335" windowWidth="8100" windowHeight="10995" xr2:uid="{94511D3B-3E75-4C9B-A8B4-FE48D2B08D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Subject</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,58 @@
   </si>
   <si>
     <t>Subject 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Micro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Macro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Training time (1,000 epoch)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Testing time (1,000 epoch)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2391MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28.891s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>59.299s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.554s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>58.042s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -197,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -592,13 +644,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +765,18 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,43 +786,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C9332A-A877-4B80-892A-108A3023B24C}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
@@ -1073,16 +1182,16 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1111,25 +1220,25 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="36">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="32">
         <v>80</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="32">
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="32">
         <v>5</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="32">
         <v>2.09</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -1144,15 +1253,15 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="37"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="6">
         <v>8191</v>
       </c>
@@ -1165,15 +1274,15 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="37"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="6">
         <v>1470</v>
       </c>
@@ -1186,15 +1295,15 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="2">
         <v>8257</v>
       </c>
@@ -1207,25 +1316,25 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="32">
         <v>105</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="32">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="32">
         <v>6</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="32">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
       <c r="H7" s="3">
@@ -1240,15 +1349,15 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="37"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="6">
         <v>5986</v>
       </c>
@@ -1261,15 +1370,15 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="37"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="6">
         <v>1500</v>
       </c>
@@ -1282,15 +1391,15 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="2">
         <v>2992</v>
       </c>
@@ -1303,25 +1412,25 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="32">
         <v>103</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="32">
         <v>6</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="32">
         <v>1</v>
       </c>
       <c r="H11" s="3">
@@ -1336,15 +1445,15 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="37"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="6">
         <v>5529</v>
       </c>
@@ -1357,15 +1466,15 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="6">
         <v>1594</v>
       </c>
@@ -1378,15 +1487,15 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="2">
         <v>5938</v>
       </c>
@@ -1399,25 +1508,25 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="36">
+      <c r="A15" s="29">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="32">
         <v>180</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="32">
         <v>1</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="6">
@@ -1432,15 +1541,15 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="37"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="6">
         <v>7143</v>
       </c>
@@ -1453,15 +1562,15 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="6">
         <v>1479</v>
       </c>
@@ -1474,15 +1583,15 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="42"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="13">
         <v>8761</v>
       </c>
@@ -1529,7 +1638,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1546,7 +1655,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="40"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
@@ -1561,7 +1670,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="40"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
@@ -1576,11 +1685,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="21">
         <v>0.52100000000000002</v>
       </c>
@@ -1590,7 +1699,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1607,7 +1716,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="40"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="18" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1731,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="40"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1637,11 +1746,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="21">
         <f>AVERAGE(D26:D28)</f>
         <v>0.49099999999999994</v>
@@ -1658,35 +1767,87 @@
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>39</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A3:A6"/>
@@ -1698,19 +1859,12 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
